--- a/AFL-2018-Fixture.xlsx
+++ b/AFL-2018-Fixture.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbuckland\OneDrive\Sports Writing\AFL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lab\afl-elo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0F830-E6B7-497B-842C-B44E9DA3F65E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10938" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018AFL Fixture" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2018AFL Fixture'!$A$1:$I$397</definedName>
   </definedNames>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,9 +112,6 @@
   </si>
   <si>
     <t>North Melbourne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cazaly’s Stadium </t>
   </si>
   <si>
     <t>Hawthorn</t>
@@ -256,12 +254,15 @@
   <si>
     <t>Round 23</t>
   </si>
+  <si>
+    <t xml:space="preserve">Cazaly's Stadium </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,22 +577,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="H380" sqref="H380:H397"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.68359375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.26171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.26171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.26171875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -649,7 +650,7 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -678,7 +679,7 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -707,7 +708,7 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -736,7 +737,7 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -765,7 +766,7 @@
         <v>0.64930555555555558</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -794,7 +795,7 @@
         <v>0.64930555555555558</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -823,7 +824,7 @@
         <v>0.67013888888888884</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -852,7 +853,7 @@
         <v>0.67013888888888884</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -872,7 +873,7 @@
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="H10" s="2">
         <v>0.80902777777777779</v>
@@ -881,7 +882,7 @@
         <v>0.76736111111111105</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -901,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="H11" s="2">
         <v>0.80902777777777779</v>
@@ -910,7 +911,7 @@
         <v>0.76736111111111105</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -921,10 +922,10 @@
         <v>43183</v>
       </c>
       <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
         <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -939,7 +940,7 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -950,10 +951,10 @@
         <v>43183</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -968,27 +969,27 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>43184</v>
       </c>
       <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
         <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
       </c>
       <c r="H14" s="2">
         <v>0.54861111111111105</v>
@@ -997,27 +998,27 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
         <v>43184</v>
       </c>
       <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
         <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
       </c>
       <c r="H15" s="2">
         <v>0.54861111111111105</v>
@@ -1026,21 +1027,21 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
         <v>43184</v>
       </c>
       <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
         <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -1055,21 +1056,21 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>43184</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -1084,27 +1085,27 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <v>43184</v>
       </c>
       <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
         <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
       </c>
       <c r="H18" s="2">
         <v>0.80555555555555547</v>
@@ -1113,27 +1114,27 @@
         <v>0.68055555555555536</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1">
         <v>43184</v>
       </c>
       <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
         <v>38</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
       </c>
       <c r="H19" s="2">
         <v>0.80555555555555547</v>
@@ -1142,9 +1143,9 @@
         <v>0.68055555555555536</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1171,9 +1172,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1200,9 +1201,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -1229,9 +1230,9 @@
         <v>0.68055555555555547</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -1258,9 +1259,9 @@
         <v>0.68055555555555547</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1287,9 +1288,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1316,9 +1317,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1327,10 +1328,10 @@
         <v>43190</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -1345,9 +1346,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1356,10 +1357,10 @@
         <v>43190</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -1374,9 +1375,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1388,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H28" s="2">
         <v>0.80902777777777779</v>
@@ -1403,9 +1404,9 @@
         <v>0.76736111111111105</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -1414,7 +1415,7 @@
         <v>43190</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
@@ -1423,7 +1424,7 @@
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29" s="2">
         <v>0.80902777777777779</v>
@@ -1432,9 +1433,9 @@
         <v>0.76736111111111105</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -1452,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H30" s="2">
         <v>0.81944444444444453</v>
@@ -1461,9 +1462,9 @@
         <v>0.69444444444444442</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -1481,7 +1482,7 @@
         <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H31" s="2">
         <v>0.81944444444444453</v>
@@ -1490,21 +1491,21 @@
         <v>0.69444444444444442</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <v>43191</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -1519,21 +1520,21 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <v>43191</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
@@ -1548,18 +1549,18 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1">
         <v>43191</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
@@ -1568,7 +1569,7 @@
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H34" s="2">
         <v>0.69444444444444453</v>
@@ -1577,12 +1578,12 @@
         <v>0.69444444444444453</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1">
         <v>43191</v>
@@ -1591,13 +1592,13 @@
         <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35" s="2">
         <v>0.69444444444444453</v>
@@ -1606,21 +1607,21 @@
         <v>0.69444444444444453</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1">
         <v>43192</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -1635,21 +1636,21 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1">
         <v>43192</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
         <v>15</v>
@@ -1664,9 +1665,9 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -1678,7 +1679,7 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -1693,9 +1694,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -1704,7 +1705,7 @@
         <v>43196</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
         <v>12</v>
@@ -1722,9 +1723,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -1751,9 +1752,9 @@
         <v>0.55208333333333326</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -1780,9 +1781,9 @@
         <v>0.55208333333333326</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
@@ -1791,7 +1792,7 @@
         <v>43197</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
         <v>27</v>
@@ -1809,9 +1810,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -1823,7 +1824,7 @@
         <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
@@ -1838,9 +1839,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -1858,7 +1859,7 @@
         <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H44" s="2">
         <v>0.69097222222222221</v>
@@ -1867,9 +1868,9 @@
         <v>0.60763888888888884</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -1887,7 +1888,7 @@
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H45" s="2">
         <v>0.69097222222222221</v>
@@ -1896,9 +1897,9 @@
         <v>0.60763888888888884</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -1925,9 +1926,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -1954,9 +1955,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -1965,16 +1966,16 @@
         <v>43197</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H48" s="2">
         <v>0.80902777777777779</v>
@@ -1983,9 +1984,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
@@ -1994,16 +1995,16 @@
         <v>43197</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H49" s="2">
         <v>0.80902777777777779</v>
@@ -2012,12 +2013,12 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" s="1">
         <v>43198</v>
@@ -2026,7 +2027,7 @@
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -2041,18 +2042,18 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="1">
         <v>43198</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -2070,18 +2071,18 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" s="1">
         <v>43198</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E52" t="s">
         <v>17</v>
@@ -2099,12 +2100,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" s="1">
         <v>43198</v>
@@ -2113,7 +2114,7 @@
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
         <v>15</v>
@@ -2128,27 +2129,27 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1">
         <v>43198</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H54" s="2">
         <v>0.69444444444444453</v>
@@ -2157,27 +2158,27 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" s="1">
         <v>43198</v>
       </c>
       <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
         <v>36</v>
       </c>
-      <c r="E55" t="s">
-        <v>37</v>
-      </c>
       <c r="F55" t="s">
         <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H55" s="2">
         <v>0.69444444444444453</v>
@@ -2186,9 +2187,9 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
@@ -2200,7 +2201,7 @@
         <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -2215,9 +2216,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
@@ -2226,7 +2227,7 @@
         <v>43203</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
@@ -2244,9 +2245,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -2255,7 +2256,7 @@
         <v>43204</v>
       </c>
       <c r="D58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" t="s">
         <v>24</v>
@@ -2264,7 +2265,7 @@
         <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H58" s="2">
         <v>0.57291666666666663</v>
@@ -2273,9 +2274,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
@@ -2287,13 +2288,13 @@
         <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
         <v>15</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H59" s="2">
         <v>0.57291666666666663</v>
@@ -2302,9 +2303,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -2331,9 +2332,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
@@ -2360,9 +2361,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
@@ -2371,10 +2372,10 @@
         <v>43204</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -2389,9 +2390,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
@@ -2400,10 +2401,10 @@
         <v>43204</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -2418,9 +2419,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
@@ -2438,7 +2439,7 @@
         <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64" s="2">
         <v>0.80902777777777779</v>
@@ -2447,9 +2448,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
@@ -2467,7 +2468,7 @@
         <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" s="2">
         <v>0.80902777777777779</v>
@@ -2476,9 +2477,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -2487,7 +2488,7 @@
         <v>43204</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E66" t="s">
         <v>26</v>
@@ -2496,7 +2497,7 @@
         <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H66" s="2">
         <v>0.84027777777777779</v>
@@ -2505,9 +2506,9 @@
         <v>0.75694444444444442</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -2519,13 +2520,13 @@
         <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H67" s="2">
         <v>0.84027777777777779</v>
@@ -2534,12 +2535,12 @@
         <v>0.75694444444444442</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C68" s="1">
         <v>43205</v>
@@ -2563,12 +2564,12 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C69" s="1">
         <v>43205</v>
@@ -2592,21 +2593,21 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C70" s="1">
         <v>43205</v>
       </c>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F70" t="s">
         <v>13</v>
@@ -2621,21 +2622,21 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C71" s="1">
         <v>43205</v>
       </c>
       <c r="D71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
@@ -2650,18 +2651,18 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72" s="1">
         <v>43205</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E72" t="s">
         <v>21</v>
@@ -2670,7 +2671,7 @@
         <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H72" s="2">
         <v>0.69444444444444453</v>
@@ -2679,12 +2680,12 @@
         <v>0.69444444444444453</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C73" s="1">
         <v>43205</v>
@@ -2693,13 +2694,13 @@
         <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
         <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H73" s="2">
         <v>0.69444444444444453</v>
@@ -2708,9 +2709,9 @@
         <v>0.69444444444444453</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
@@ -2719,7 +2720,7 @@
         <v>43210</v>
       </c>
       <c r="D74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E74" t="s">
         <v>18</v>
@@ -2728,7 +2729,7 @@
         <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H74" s="2">
         <v>0.82638888888888884</v>
@@ -2737,9 +2738,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
@@ -2751,13 +2752,13 @@
         <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H75" s="2">
         <v>0.82638888888888884</v>
@@ -2766,9 +2767,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
@@ -2780,7 +2781,7 @@
         <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
@@ -2795,9 +2796,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
@@ -2806,7 +2807,7 @@
         <v>43211</v>
       </c>
       <c r="D77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s">
         <v>21</v>
@@ -2824,9 +2825,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -2838,7 +2839,7 @@
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
         <v>13</v>
@@ -2853,9 +2854,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
@@ -2864,7 +2865,7 @@
         <v>43211</v>
       </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -2882,9 +2883,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
@@ -2896,7 +2897,7 @@
         <v>23</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
@@ -2911,9 +2912,9 @@
         <v>0.79861111111111116</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
@@ -2922,7 +2923,7 @@
         <v>43211</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E81" t="s">
         <v>23</v>
@@ -2940,9 +2941,9 @@
         <v>0.79861111111111116</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
@@ -2954,13 +2955,13 @@
         <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H82" s="2">
         <v>0.84027777777777779</v>
@@ -2969,9 +2970,9 @@
         <v>0.75694444444444442</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
@@ -2980,7 +2981,7 @@
         <v>43211</v>
       </c>
       <c r="D83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E83" t="s">
         <v>24</v>
@@ -2989,7 +2990,7 @@
         <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H83" s="2">
         <v>0.84027777777777779</v>
@@ -2998,12 +2999,12 @@
         <v>0.75694444444444442</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C84" s="1">
         <v>43212</v>
@@ -3012,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="E84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -3027,18 +3028,18 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85" s="1">
         <v>43212</v>
       </c>
       <c r="D85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E85" t="s">
         <v>27</v>
@@ -3056,12 +3057,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C86" s="1">
         <v>43212</v>
@@ -3076,7 +3077,7 @@
         <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H86" s="2">
         <v>0.69444444444444453</v>
@@ -3085,12 +3086,12 @@
         <v>0.69444444444444453</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C87" s="1">
         <v>43212</v>
@@ -3105,7 +3106,7 @@
         <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H87" s="2">
         <v>0.69444444444444453</v>
@@ -3114,18 +3115,18 @@
         <v>0.69444444444444453</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
         <v>48</v>
-      </c>
-      <c r="B88" t="s">
-        <v>49</v>
       </c>
       <c r="C88" s="1">
         <v>43214</v>
       </c>
       <c r="D88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
@@ -3143,12 +3144,12 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" t="s">
         <v>48</v>
-      </c>
-      <c r="B89" t="s">
-        <v>49</v>
       </c>
       <c r="C89" s="1">
         <v>43214</v>
@@ -3157,7 +3158,7 @@
         <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
         <v>15</v>
@@ -3172,18 +3173,18 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C90" s="1">
         <v>43215</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E90" t="s">
         <v>17</v>
@@ -3201,12 +3202,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C91" s="1">
         <v>43215</v>
@@ -3215,7 +3216,7 @@
         <v>17</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
         <v>15</v>
@@ -3230,9 +3231,9 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
@@ -3241,7 +3242,7 @@
         <v>43217</v>
       </c>
       <c r="D92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E92" t="s">
         <v>12</v>
@@ -3259,9 +3260,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
@@ -3273,7 +3274,7 @@
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F93" t="s">
         <v>15</v>
@@ -3288,9 +3289,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
@@ -3299,16 +3300,16 @@
         <v>43218</v>
       </c>
       <c r="D94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
         <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H94" s="2">
         <v>0.57291666666666663</v>
@@ -3317,9 +3318,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
@@ -3328,16 +3329,16 @@
         <v>43218</v>
       </c>
       <c r="D95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
         <v>15</v>
       </c>
       <c r="G95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H95" s="2">
         <v>0.57291666666666663</v>
@@ -3346,9 +3347,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
@@ -3375,9 +3376,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
@@ -3404,9 +3405,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
@@ -3415,7 +3416,7 @@
         <v>43218</v>
       </c>
       <c r="D98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E98" t="s">
         <v>22</v>
@@ -3424,7 +3425,7 @@
         <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H98" s="2">
         <v>0.69097222222222221</v>
@@ -3433,9 +3434,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
@@ -3447,13 +3448,13 @@
         <v>22</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F99" t="s">
         <v>15</v>
       </c>
       <c r="G99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H99" s="2">
         <v>0.69097222222222221</v>
@@ -3462,9 +3463,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
@@ -3473,7 +3474,7 @@
         <v>43218</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E100" t="s">
         <v>21</v>
@@ -3482,7 +3483,7 @@
         <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H100" s="2">
         <v>0.80902777777777779</v>
@@ -3491,9 +3492,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
@@ -3505,13 +3506,13 @@
         <v>21</v>
       </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F101" t="s">
         <v>15</v>
       </c>
       <c r="G101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H101" s="2">
         <v>0.80902777777777779</v>
@@ -3520,9 +3521,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
@@ -3549,9 +3550,9 @@
         <v>0.79861111111111116</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B103" t="s">
         <v>20</v>
@@ -3578,12 +3579,12 @@
         <v>0.79861111111111116</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C104" s="1">
         <v>43219</v>
@@ -3592,7 +3593,7 @@
         <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F104" t="s">
         <v>13</v>
@@ -3607,18 +3608,18 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C105" s="1">
         <v>43219</v>
       </c>
       <c r="D105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E105" t="s">
         <v>17</v>
@@ -3636,18 +3637,18 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C106" s="1">
         <v>43219</v>
       </c>
       <c r="D106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -3665,12 +3666,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C107" s="1">
         <v>43219</v>
@@ -3679,7 +3680,7 @@
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F107" t="s">
         <v>15</v>
@@ -3694,12 +3695,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C108" s="1">
         <v>43219</v>
@@ -3708,13 +3709,13 @@
         <v>24</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H108" s="2">
         <v>0.69444444444444453</v>
@@ -3723,18 +3724,18 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C109" s="1">
         <v>43219</v>
       </c>
       <c r="D109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E109" t="s">
         <v>24</v>
@@ -3743,7 +3744,7 @@
         <v>15</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H109" s="2">
         <v>0.69444444444444453</v>
@@ -3752,9 +3753,9 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
@@ -3763,16 +3764,16 @@
         <v>43224</v>
       </c>
       <c r="D110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H110" s="2">
         <v>0.82638888888888884</v>
@@ -3781,9 +3782,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
@@ -3792,16 +3793,16 @@
         <v>43224</v>
       </c>
       <c r="D111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
         <v>15</v>
       </c>
       <c r="G111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H111" s="2">
         <v>0.82638888888888884</v>
@@ -3810,9 +3811,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
@@ -3821,7 +3822,7 @@
         <v>43225</v>
       </c>
       <c r="D112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E112" t="s">
         <v>26</v>
@@ -3830,7 +3831,7 @@
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H112" s="2">
         <v>0.57291666666666663</v>
@@ -3839,9 +3840,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
@@ -3853,13 +3854,13 @@
         <v>26</v>
       </c>
       <c r="E113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F113" t="s">
         <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H113" s="2">
         <v>0.57291666666666663</v>
@@ -3868,9 +3869,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
@@ -3882,7 +3883,7 @@
         <v>17</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
@@ -3897,9 +3898,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B115" t="s">
         <v>20</v>
@@ -3908,7 +3909,7 @@
         <v>43225</v>
       </c>
       <c r="D115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E115" t="s">
         <v>17</v>
@@ -3926,9 +3927,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
@@ -3937,7 +3938,7 @@
         <v>43225</v>
       </c>
       <c r="D116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E116" t="s">
         <v>23</v>
@@ -3946,7 +3947,7 @@
         <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H116" s="2">
         <v>0.69097222222222221</v>
@@ -3955,9 +3956,9 @@
         <v>0.60763888888888884</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
@@ -3969,13 +3970,13 @@
         <v>23</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H117" s="2">
         <v>0.69097222222222221</v>
@@ -3984,9 +3985,9 @@
         <v>0.60763888888888884</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B118" t="s">
         <v>20</v>
@@ -3995,7 +3996,7 @@
         <v>43225</v>
       </c>
       <c r="D118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E118" t="s">
         <v>27</v>
@@ -4004,7 +4005,7 @@
         <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H118" s="2">
         <v>0.80902777777777779</v>
@@ -4013,9 +4014,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B119" t="s">
         <v>20</v>
@@ -4027,13 +4028,13 @@
         <v>27</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F119" t="s">
         <v>15</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H119" s="2">
         <v>0.80902777777777779</v>
@@ -4042,9 +4043,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
@@ -4071,9 +4072,9 @@
         <v>0.79861111111111116</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
@@ -4100,12 +4101,12 @@
         <v>0.79861111111111116</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C122" s="1">
         <v>43226</v>
@@ -4129,12 +4130,12 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C123" s="1">
         <v>43226</v>
@@ -4158,12 +4159,12 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C124" s="1">
         <v>43226</v>
@@ -4172,7 +4173,7 @@
         <v>21</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F124" t="s">
         <v>13</v>
@@ -4187,18 +4188,18 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C125" s="1">
         <v>43226</v>
       </c>
       <c r="D125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E125" t="s">
         <v>21</v>
@@ -4216,12 +4217,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C126" s="1">
         <v>43226</v>
@@ -4230,13 +4231,13 @@
         <v>22</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F126" t="s">
         <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H126" s="2">
         <v>0.69444444444444453</v>
@@ -4245,18 +4246,18 @@
         <v>0.69444444444444453</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C127" s="1">
         <v>43226</v>
       </c>
       <c r="D127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E127" t="s">
         <v>22</v>
@@ -4265,7 +4266,7 @@
         <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H127" s="2">
         <v>0.69444444444444453</v>
@@ -4274,9 +4275,9 @@
         <v>0.69444444444444453</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
@@ -4285,10 +4286,10 @@
         <v>43231</v>
       </c>
       <c r="D128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F128" t="s">
         <v>13</v>
@@ -4303,9 +4304,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
@@ -4314,10 +4315,10 @@
         <v>43231</v>
       </c>
       <c r="D129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F129" t="s">
         <v>15</v>
@@ -4332,9 +4333,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B130" t="s">
         <v>20</v>
@@ -4343,16 +4344,16 @@
         <v>43232</v>
       </c>
       <c r="D130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
         <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H130" s="2">
         <v>0.57291666666666663</v>
@@ -4361,9 +4362,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B131" t="s">
         <v>20</v>
@@ -4372,16 +4373,16 @@
         <v>43232</v>
       </c>
       <c r="D131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F131" t="s">
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H131" s="2">
         <v>0.57291666666666663</v>
@@ -4390,9 +4391,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B132" t="s">
         <v>20</v>
@@ -4419,9 +4420,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B133" t="s">
         <v>20</v>
@@ -4448,9 +4449,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B134" t="s">
         <v>20</v>
@@ -4462,13 +4463,13 @@
         <v>26</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F134" t="s">
         <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H134" s="2">
         <v>0.69097222222222221</v>
@@ -4477,9 +4478,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B135" t="s">
         <v>20</v>
@@ -4488,7 +4489,7 @@
         <v>43232</v>
       </c>
       <c r="D135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E135" t="s">
         <v>26</v>
@@ -4497,7 +4498,7 @@
         <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H135" s="2">
         <v>0.69097222222222221</v>
@@ -4506,9 +4507,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B136" t="s">
         <v>20</v>
@@ -4535,9 +4536,9 @@
         <v>0.69444444444444442</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B137" t="s">
         <v>20</v>
@@ -4564,9 +4565,9 @@
         <v>0.69444444444444442</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B138" t="s">
         <v>20</v>
@@ -4575,7 +4576,7 @@
         <v>43232</v>
       </c>
       <c r="D138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E138" t="s">
         <v>22</v>
@@ -4593,9 +4594,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B139" t="s">
         <v>20</v>
@@ -4607,7 +4608,7 @@
         <v>22</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F139" t="s">
         <v>15</v>
@@ -4622,9 +4623,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B140" t="s">
         <v>20</v>
@@ -4642,7 +4643,7 @@
         <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H140" s="2">
         <v>0.84027777777777779</v>
@@ -4651,9 +4652,9 @@
         <v>0.75694444444444442</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B141" t="s">
         <v>20</v>
@@ -4671,7 +4672,7 @@
         <v>15</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H141" s="2">
         <v>0.84027777777777779</v>
@@ -4680,12 +4681,12 @@
         <v>0.75694444444444442</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C142" s="1">
         <v>43233</v>
@@ -4709,12 +4710,12 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C143" s="1">
         <v>43233</v>
@@ -4738,21 +4739,21 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C144" s="1">
         <v>43233</v>
       </c>
       <c r="D144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
         <v>13</v>
@@ -4767,21 +4768,21 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C145" s="1">
         <v>43233</v>
       </c>
       <c r="D145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F145" t="s">
         <v>15</v>
@@ -4796,9 +4797,9 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B146" t="s">
         <v>16</v>
@@ -4810,7 +4811,7 @@
         <v>18</v>
       </c>
       <c r="E146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
         <v>13</v>
@@ -4825,9 +4826,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B147" t="s">
         <v>16</v>
@@ -4836,7 +4837,7 @@
         <v>43238</v>
       </c>
       <c r="D147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E147" t="s">
         <v>18</v>
@@ -4854,9 +4855,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B148" t="s">
         <v>20</v>
@@ -4868,13 +4869,13 @@
         <v>27</v>
       </c>
       <c r="E148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F148" t="s">
         <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H148" s="2">
         <v>0.57291666666666663</v>
@@ -4883,9 +4884,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B149" t="s">
         <v>20</v>
@@ -4894,7 +4895,7 @@
         <v>43239</v>
       </c>
       <c r="D149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E149" t="s">
         <v>27</v>
@@ -4903,7 +4904,7 @@
         <v>15</v>
       </c>
       <c r="G149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H149" s="2">
         <v>0.57291666666666663</v>
@@ -4912,9 +4913,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B150" t="s">
         <v>20</v>
@@ -4932,7 +4933,7 @@
         <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H150" s="2">
         <v>0.63541666666666663</v>
@@ -4941,9 +4942,9 @@
         <v>0.55208333333333326</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B151" t="s">
         <v>20</v>
@@ -4961,7 +4962,7 @@
         <v>15</v>
       </c>
       <c r="G151" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H151" s="2">
         <v>0.63541666666666663</v>
@@ -4970,9 +4971,9 @@
         <v>0.55208333333333326</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B152" t="s">
         <v>20</v>
@@ -4984,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F152" t="s">
         <v>13</v>
@@ -4999,9 +5000,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B153" t="s">
         <v>20</v>
@@ -5010,7 +5011,7 @@
         <v>43239</v>
       </c>
       <c r="D153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E153" t="s">
         <v>17</v>
@@ -5028,9 +5029,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B154" t="s">
         <v>20</v>
@@ -5042,7 +5043,7 @@
         <v>21</v>
       </c>
       <c r="E154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F154" t="s">
         <v>13</v>
@@ -5057,9 +5058,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B155" t="s">
         <v>20</v>
@@ -5068,7 +5069,7 @@
         <v>43239</v>
       </c>
       <c r="D155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E155" t="s">
         <v>21</v>
@@ -5086,9 +5087,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B156" t="s">
         <v>20</v>
@@ -5097,7 +5098,7 @@
         <v>43239</v>
       </c>
       <c r="D156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E156" t="s">
         <v>24</v>
@@ -5106,7 +5107,7 @@
         <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H156" s="2">
         <v>0.80902777777777779</v>
@@ -5115,9 +5116,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B157" t="s">
         <v>20</v>
@@ -5129,13 +5130,13 @@
         <v>24</v>
       </c>
       <c r="E157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F157" t="s">
         <v>15</v>
       </c>
       <c r="G157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H157" s="2">
         <v>0.80902777777777779</v>
@@ -5144,12 +5145,12 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C158" s="1">
         <v>43240</v>
@@ -5158,7 +5159,7 @@
         <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F158" t="s">
         <v>13</v>
@@ -5173,18 +5174,18 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C159" s="1">
         <v>43240</v>
       </c>
       <c r="D159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E159" t="s">
         <v>12</v>
@@ -5202,12 +5203,12 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C160" s="1">
         <v>43240</v>
@@ -5216,13 +5217,13 @@
         <v>22</v>
       </c>
       <c r="E160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F160" t="s">
         <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H160" s="2">
         <v>0.63888888888888895</v>
@@ -5231,18 +5232,18 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C161" s="1">
         <v>43240</v>
       </c>
       <c r="D161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E161" t="s">
         <v>22</v>
@@ -5251,7 +5252,7 @@
         <v>15</v>
       </c>
       <c r="G161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H161" s="2">
         <v>0.63888888888888895</v>
@@ -5260,18 +5261,18 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C162" s="1">
         <v>43240</v>
       </c>
       <c r="D162" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -5280,7 +5281,7 @@
         <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H162" s="2">
         <v>0.69444444444444453</v>
@@ -5289,12 +5290,12 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C163" s="1">
         <v>43240</v>
@@ -5303,13 +5304,13 @@
         <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F163" t="s">
         <v>15</v>
       </c>
       <c r="G163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H163" s="2">
         <v>0.69444444444444453</v>
@@ -5318,9 +5319,9 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B164" t="s">
         <v>16</v>
@@ -5329,10 +5330,10 @@
         <v>43245</v>
       </c>
       <c r="D164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F164" t="s">
         <v>13</v>
@@ -5347,9 +5348,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B165" t="s">
         <v>16</v>
@@ -5358,10 +5359,10 @@
         <v>43245</v>
       </c>
       <c r="D165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F165" t="s">
         <v>15</v>
@@ -5376,9 +5377,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B166" t="s">
         <v>20</v>
@@ -5405,9 +5406,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B167" t="s">
         <v>20</v>
@@ -5434,9 +5435,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B168" t="s">
         <v>20</v>
@@ -5448,13 +5449,13 @@
         <v>22</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F168" t="s">
         <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H168" s="2">
         <v>0.69097222222222221</v>
@@ -5463,9 +5464,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B169" t="s">
         <v>20</v>
@@ -5474,7 +5475,7 @@
         <v>43246</v>
       </c>
       <c r="D169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E169" t="s">
         <v>22</v>
@@ -5483,7 +5484,7 @@
         <v>15</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H169" s="2">
         <v>0.69097222222222221</v>
@@ -5492,9 +5493,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B170" t="s">
         <v>20</v>
@@ -5503,7 +5504,7 @@
         <v>43246</v>
       </c>
       <c r="D170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E170" t="s">
         <v>12</v>
@@ -5512,7 +5513,7 @@
         <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H170" s="2">
         <v>0.80902777777777779</v>
@@ -5521,9 +5522,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B171" t="s">
         <v>20</v>
@@ -5535,13 +5536,13 @@
         <v>12</v>
       </c>
       <c r="E171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F171" t="s">
         <v>15</v>
       </c>
       <c r="G171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H171" s="2">
         <v>0.80902777777777779</v>
@@ -5550,9 +5551,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B172" t="s">
         <v>20</v>
@@ -5561,7 +5562,7 @@
         <v>43246</v>
       </c>
       <c r="D172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E172" t="s">
         <v>17</v>
@@ -5570,7 +5571,7 @@
         <v>13</v>
       </c>
       <c r="G172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H172" s="2">
         <v>0.80902777777777779</v>
@@ -5579,9 +5580,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B173" t="s">
         <v>20</v>
@@ -5593,13 +5594,13 @@
         <v>17</v>
       </c>
       <c r="E173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F173" t="s">
         <v>15</v>
       </c>
       <c r="G173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H173" s="2">
         <v>0.80902777777777779</v>
@@ -5608,21 +5609,21 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C174" s="1">
         <v>43247</v>
       </c>
       <c r="D174" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E174" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F174" t="s">
         <v>13</v>
@@ -5637,21 +5638,21 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C175" s="1">
         <v>43247</v>
       </c>
       <c r="D175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E175" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F175" t="s">
         <v>15</v>
@@ -5666,18 +5667,18 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B176" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C176" s="1">
         <v>43247</v>
       </c>
       <c r="D176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E176" t="s">
         <v>18</v>
@@ -5686,7 +5687,7 @@
         <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H176" s="2">
         <v>0.63888888888888895</v>
@@ -5695,12 +5696,12 @@
         <v>0.61805555555555558</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C177" s="1">
         <v>43247</v>
@@ -5709,13 +5710,13 @@
         <v>18</v>
       </c>
       <c r="E177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F177" t="s">
         <v>15</v>
       </c>
       <c r="G177" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H177" s="2">
         <v>0.63888888888888895</v>
@@ -5724,12 +5725,12 @@
         <v>0.61805555555555558</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B178" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C178" s="1">
         <v>43247</v>
@@ -5744,7 +5745,7 @@
         <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H178" s="2">
         <v>0.69444444444444453</v>
@@ -5753,12 +5754,12 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C179" s="1">
         <v>43247</v>
@@ -5773,7 +5774,7 @@
         <v>15</v>
       </c>
       <c r="G179" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H179" s="2">
         <v>0.69444444444444453</v>
@@ -5782,9 +5783,9 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B180" t="s">
         <v>16</v>
@@ -5793,7 +5794,7 @@
         <v>43252</v>
       </c>
       <c r="D180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E180" t="s">
         <v>12</v>
@@ -5802,7 +5803,7 @@
         <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H180" s="2">
         <v>0.82638888888888884</v>
@@ -5811,9 +5812,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B181" t="s">
         <v>16</v>
@@ -5825,13 +5826,13 @@
         <v>12</v>
       </c>
       <c r="E181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F181" t="s">
         <v>15</v>
       </c>
       <c r="G181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H181" s="2">
         <v>0.82638888888888884</v>
@@ -5840,9 +5841,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B182" t="s">
         <v>20</v>
@@ -5851,10 +5852,10 @@
         <v>43253</v>
       </c>
       <c r="D182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F182" t="s">
         <v>13</v>
@@ -5869,9 +5870,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B183" t="s">
         <v>20</v>
@@ -5880,10 +5881,10 @@
         <v>43253</v>
       </c>
       <c r="D183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E183" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F183" t="s">
         <v>15</v>
@@ -5898,9 +5899,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B184" t="s">
         <v>20</v>
@@ -5909,7 +5910,7 @@
         <v>43253</v>
       </c>
       <c r="D184" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E184" t="s">
         <v>23</v>
@@ -5918,7 +5919,7 @@
         <v>13</v>
       </c>
       <c r="G184" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H184" s="2">
         <v>0.59027777777777779</v>
@@ -5927,9 +5928,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B185" t="s">
         <v>20</v>
@@ -5941,13 +5942,13 @@
         <v>23</v>
       </c>
       <c r="E185" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F185" t="s">
         <v>15</v>
       </c>
       <c r="G185" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H185" s="2">
         <v>0.59027777777777779</v>
@@ -5956,9 +5957,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B186" t="s">
         <v>20</v>
@@ -5970,13 +5971,13 @@
         <v>26</v>
       </c>
       <c r="E186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F186" t="s">
         <v>13</v>
       </c>
       <c r="G186" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H186" s="2">
         <v>0.69097222222222221</v>
@@ -5985,9 +5986,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B187" t="s">
         <v>20</v>
@@ -5996,7 +5997,7 @@
         <v>43253</v>
       </c>
       <c r="D187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E187" t="s">
         <v>26</v>
@@ -6005,7 +6006,7 @@
         <v>15</v>
       </c>
       <c r="G187" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H187" s="2">
         <v>0.69097222222222221</v>
@@ -6014,9 +6015,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B188" t="s">
         <v>20</v>
@@ -6043,9 +6044,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B189" t="s">
         <v>20</v>
@@ -6072,9 +6073,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B190" t="s">
         <v>20</v>
@@ -6083,7 +6084,7 @@
         <v>43253</v>
       </c>
       <c r="D190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E190" t="s">
         <v>21</v>
@@ -6092,7 +6093,7 @@
         <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H190" s="2">
         <v>0.84027777777777779</v>
@@ -6101,9 +6102,9 @@
         <v>0.75694444444444442</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B191" t="s">
         <v>20</v>
@@ -6115,13 +6116,13 @@
         <v>21</v>
       </c>
       <c r="E191" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F191" t="s">
         <v>15</v>
       </c>
       <c r="G191" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H191" s="2">
         <v>0.84027777777777779</v>
@@ -6130,12 +6131,12 @@
         <v>0.75694444444444442</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B192" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C192" s="1">
         <v>43254</v>
@@ -6159,12 +6160,12 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B193" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C193" s="1">
         <v>43254</v>
@@ -6188,18 +6189,18 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B194" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C194" s="1">
         <v>43254</v>
       </c>
       <c r="D194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E194" t="s">
         <v>24</v>
@@ -6217,12 +6218,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C195" s="1">
         <v>43254</v>
@@ -6231,7 +6232,7 @@
         <v>24</v>
       </c>
       <c r="E195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F195" t="s">
         <v>15</v>
@@ -6246,12 +6247,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C196" s="1">
         <v>43254</v>
@@ -6260,7 +6261,7 @@
         <v>18</v>
       </c>
       <c r="E196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F196" t="s">
         <v>13</v>
@@ -6275,18 +6276,18 @@
         <v>0.67361111111111116</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C197" s="1">
         <v>43254</v>
       </c>
       <c r="D197" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E197" t="s">
         <v>18</v>
@@ -6304,9 +6305,9 @@
         <v>0.67361111111111116</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B198" t="s">
         <v>16</v>
@@ -6333,9 +6334,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B199" t="s">
         <v>16</v>
@@ -6362,9 +6363,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B200" t="s">
         <v>20</v>
@@ -6373,7 +6374,7 @@
         <v>43260</v>
       </c>
       <c r="D200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E200" t="s">
         <v>27</v>
@@ -6382,7 +6383,7 @@
         <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H200" s="2">
         <v>0.57291666666666663</v>
@@ -6391,9 +6392,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B201" t="s">
         <v>20</v>
@@ -6405,13 +6406,13 @@
         <v>27</v>
       </c>
       <c r="E201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F201" t="s">
         <v>15</v>
       </c>
       <c r="G201" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H201" s="2">
         <v>0.57291666666666663</v>
@@ -6420,9 +6421,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B202" t="s">
         <v>20</v>
@@ -6431,7 +6432,7 @@
         <v>43260</v>
       </c>
       <c r="D202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E202" t="s">
         <v>26</v>
@@ -6440,7 +6441,7 @@
         <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H202" s="2">
         <v>0.69097222222222221</v>
@@ -6449,9 +6450,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B203" t="s">
         <v>20</v>
@@ -6463,13 +6464,13 @@
         <v>26</v>
       </c>
       <c r="E203" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F203" t="s">
         <v>15</v>
       </c>
       <c r="G203" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H203" s="2">
         <v>0.69097222222222221</v>
@@ -6478,9 +6479,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B204" t="s">
         <v>20</v>
@@ -6492,7 +6493,7 @@
         <v>21</v>
       </c>
       <c r="E204" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F204" t="s">
         <v>13</v>
@@ -6507,9 +6508,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B205" t="s">
         <v>20</v>
@@ -6518,7 +6519,7 @@
         <v>43260</v>
       </c>
       <c r="D205" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E205" t="s">
         <v>21</v>
@@ -6536,12 +6537,12 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B206" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C206" s="1">
         <v>43261</v>
@@ -6556,7 +6557,7 @@
         <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H206" s="2">
         <v>0.54861111111111105</v>
@@ -6565,12 +6566,12 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B207" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C207" s="1">
         <v>43261</v>
@@ -6585,7 +6586,7 @@
         <v>15</v>
       </c>
       <c r="G207" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H207" s="2">
         <v>0.54861111111111105</v>
@@ -6594,12 +6595,12 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B208" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C208" s="1">
         <v>43261</v>
@@ -6614,7 +6615,7 @@
         <v>13</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H208" s="2">
         <v>0.69444444444444453</v>
@@ -6623,12 +6624,12 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B209" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C209" s="1">
         <v>43261</v>
@@ -6643,7 +6644,7 @@
         <v>15</v>
       </c>
       <c r="G209" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H209" s="2">
         <v>0.69444444444444453</v>
@@ -6652,21 +6653,21 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B210" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C210" s="1">
         <v>43262</v>
       </c>
       <c r="D210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F210" t="s">
         <v>13</v>
@@ -6681,21 +6682,21 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B211" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C211" s="1">
         <v>43262</v>
       </c>
       <c r="D211" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F211" t="s">
         <v>15</v>
@@ -6710,9 +6711,9 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B212" t="s">
         <v>10</v>
@@ -6724,7 +6725,7 @@
         <v>23</v>
       </c>
       <c r="E212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F212" t="s">
         <v>13</v>
@@ -6739,9 +6740,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B213" t="s">
         <v>10</v>
@@ -6750,7 +6751,7 @@
         <v>43265</v>
       </c>
       <c r="D213" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E213" t="s">
         <v>23</v>
@@ -6768,9 +6769,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B214" t="s">
         <v>16</v>
@@ -6779,16 +6780,16 @@
         <v>43266</v>
       </c>
       <c r="D214" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F214" t="s">
         <v>13</v>
       </c>
       <c r="G214" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H214" s="2">
         <v>0.82638888888888884</v>
@@ -6797,9 +6798,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B215" t="s">
         <v>16</v>
@@ -6808,16 +6809,16 @@
         <v>43266</v>
       </c>
       <c r="D215" t="s">
+        <v>36</v>
+      </c>
+      <c r="E215" t="s">
         <v>37</v>
       </c>
-      <c r="E215" t="s">
-        <v>38</v>
-      </c>
       <c r="F215" t="s">
         <v>15</v>
       </c>
       <c r="G215" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H215" s="2">
         <v>0.82638888888888884</v>
@@ -6826,9 +6827,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B216" t="s">
         <v>20</v>
@@ -6855,9 +6856,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B217" t="s">
         <v>20</v>
@@ -6884,9 +6885,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B218" t="s">
         <v>20</v>
@@ -6904,7 +6905,7 @@
         <v>13</v>
       </c>
       <c r="G218" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H218" s="2">
         <v>0.69097222222222221</v>
@@ -6913,9 +6914,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B219" t="s">
         <v>20</v>
@@ -6933,7 +6934,7 @@
         <v>15</v>
       </c>
       <c r="G219" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H219" s="2">
         <v>0.69097222222222221</v>
@@ -6942,9 +6943,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B220" t="s">
         <v>20</v>
@@ -6953,7 +6954,7 @@
         <v>43267</v>
       </c>
       <c r="D220" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E220" t="s">
         <v>18</v>
@@ -6971,9 +6972,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B221" t="s">
         <v>20</v>
@@ -6985,7 +6986,7 @@
         <v>18</v>
       </c>
       <c r="E221" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F221" t="s">
         <v>15</v>
@@ -7000,18 +7001,18 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B222" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C222" s="1">
         <v>43268</v>
       </c>
       <c r="D222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E222" t="s">
         <v>11</v>
@@ -7029,12 +7030,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B223" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C223" s="1">
         <v>43268</v>
@@ -7043,7 +7044,7 @@
         <v>11</v>
       </c>
       <c r="E223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F223" t="s">
         <v>15</v>
@@ -7058,9 +7059,9 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B224" t="s">
         <v>10</v>
@@ -7069,7 +7070,7 @@
         <v>43272</v>
       </c>
       <c r="D224" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
@@ -7078,7 +7079,7 @@
         <v>13</v>
       </c>
       <c r="G224" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H224" s="2">
         <v>0.84027777777777779</v>
@@ -7087,9 +7088,9 @@
         <v>0.75694444444444442</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B225" t="s">
         <v>10</v>
@@ -7101,13 +7102,13 @@
         <v>17</v>
       </c>
       <c r="E225" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F225" t="s">
         <v>15</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H225" s="2">
         <v>0.84027777777777779</v>
@@ -7116,9 +7117,9 @@
         <v>0.75694444444444442</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B226" t="s">
         <v>16</v>
@@ -7130,7 +7131,7 @@
         <v>23</v>
       </c>
       <c r="E226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F226" t="s">
         <v>13</v>
@@ -7145,9 +7146,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B227" t="s">
         <v>16</v>
@@ -7156,7 +7157,7 @@
         <v>43273</v>
       </c>
       <c r="D227" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E227" t="s">
         <v>23</v>
@@ -7174,9 +7175,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B228" t="s">
         <v>20</v>
@@ -7185,7 +7186,7 @@
         <v>43274</v>
       </c>
       <c r="D228" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E228" t="s">
         <v>26</v>
@@ -7194,7 +7195,7 @@
         <v>13</v>
       </c>
       <c r="G228" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H228" s="2">
         <v>0.57291666666666663</v>
@@ -7203,9 +7204,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B229" t="s">
         <v>20</v>
@@ -7217,13 +7218,13 @@
         <v>26</v>
       </c>
       <c r="E229" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F229" t="s">
         <v>15</v>
       </c>
       <c r="G229" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H229" s="2">
         <v>0.57291666666666663</v>
@@ -7232,9 +7233,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B230" t="s">
         <v>20</v>
@@ -7246,13 +7247,13 @@
         <v>22</v>
       </c>
       <c r="E230" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F230" t="s">
         <v>13</v>
       </c>
       <c r="G230" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H230" s="2">
         <v>0.69097222222222221</v>
@@ -7261,9 +7262,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B231" t="s">
         <v>20</v>
@@ -7272,7 +7273,7 @@
         <v>43274</v>
       </c>
       <c r="D231" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E231" t="s">
         <v>22</v>
@@ -7281,7 +7282,7 @@
         <v>15</v>
       </c>
       <c r="G231" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H231" s="2">
         <v>0.69097222222222221</v>
@@ -7290,9 +7291,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B232" t="s">
         <v>20</v>
@@ -7301,7 +7302,7 @@
         <v>43274</v>
       </c>
       <c r="D232" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E232" t="s">
         <v>27</v>
@@ -7319,9 +7320,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B233" t="s">
         <v>20</v>
@@ -7333,7 +7334,7 @@
         <v>27</v>
       </c>
       <c r="E233" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F233" t="s">
         <v>15</v>
@@ -7348,18 +7349,18 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B234" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C234" s="1">
         <v>43275</v>
       </c>
       <c r="D234" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E234" t="s">
         <v>12</v>
@@ -7377,12 +7378,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C235" s="1">
         <v>43275</v>
@@ -7391,7 +7392,7 @@
         <v>12</v>
       </c>
       <c r="E235" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F235" t="s">
         <v>15</v>
@@ -7406,9 +7407,9 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B236" t="s">
         <v>10</v>
@@ -7420,7 +7421,7 @@
         <v>11</v>
       </c>
       <c r="E236" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F236" t="s">
         <v>13</v>
@@ -7435,9 +7436,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B237" t="s">
         <v>10</v>
@@ -7446,7 +7447,7 @@
         <v>43279</v>
       </c>
       <c r="D237" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E237" t="s">
         <v>11</v>
@@ -7464,9 +7465,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B238" t="s">
         <v>16</v>
@@ -7475,10 +7476,10 @@
         <v>43280</v>
       </c>
       <c r="D238" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F238" t="s">
         <v>13</v>
@@ -7493,9 +7494,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B239" t="s">
         <v>16</v>
@@ -7504,10 +7505,10 @@
         <v>43280</v>
       </c>
       <c r="D239" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F239" t="s">
         <v>15</v>
@@ -7522,9 +7523,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B240" t="s">
         <v>20</v>
@@ -7551,9 +7552,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B241" t="s">
         <v>20</v>
@@ -7580,9 +7581,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B242" t="s">
         <v>20</v>
@@ -7594,7 +7595,7 @@
         <v>18</v>
       </c>
       <c r="E242" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F242" t="s">
         <v>13</v>
@@ -7609,9 +7610,9 @@
         <v>0.67013888888888884</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B243" t="s">
         <v>20</v>
@@ -7620,7 +7621,7 @@
         <v>43281</v>
       </c>
       <c r="D243" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E243" t="s">
         <v>18</v>
@@ -7638,9 +7639,9 @@
         <v>0.67013888888888884</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B244" t="s">
         <v>20</v>
@@ -7652,13 +7653,13 @@
         <v>26</v>
       </c>
       <c r="E244" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F244" t="s">
         <v>13</v>
       </c>
       <c r="G244" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H244" s="2">
         <v>0.80902777777777779</v>
@@ -7667,9 +7668,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B245" t="s">
         <v>20</v>
@@ -7678,7 +7679,7 @@
         <v>43281</v>
       </c>
       <c r="D245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E245" t="s">
         <v>26</v>
@@ -7687,7 +7688,7 @@
         <v>15</v>
       </c>
       <c r="G245" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H245" s="2">
         <v>0.80902777777777779</v>
@@ -7696,9 +7697,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B246" t="s">
         <v>20</v>
@@ -7707,16 +7708,16 @@
         <v>43281</v>
       </c>
       <c r="D246" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E246" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F246" t="s">
         <v>13</v>
       </c>
       <c r="G246" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H246" s="2">
         <v>0.80902777777777779</v>
@@ -7725,9 +7726,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B247" t="s">
         <v>20</v>
@@ -7736,16 +7737,16 @@
         <v>43281</v>
       </c>
       <c r="D247" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E247" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F247" t="s">
         <v>15</v>
       </c>
       <c r="G247" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H247" s="2">
         <v>0.80902777777777779</v>
@@ -7754,18 +7755,18 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B248" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C248" s="1">
         <v>43282</v>
       </c>
       <c r="D248" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E248" t="s">
         <v>21</v>
@@ -7783,12 +7784,12 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B249" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C249" s="1">
         <v>43282</v>
@@ -7797,7 +7798,7 @@
         <v>21</v>
       </c>
       <c r="E249" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F249" t="s">
         <v>15</v>
@@ -7812,12 +7813,12 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B250" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C250" s="1">
         <v>43282</v>
@@ -7841,12 +7842,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B251" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C251" s="1">
         <v>43282</v>
@@ -7870,12 +7871,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B252" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C252" s="1">
         <v>43282</v>
@@ -7890,7 +7891,7 @@
         <v>13</v>
       </c>
       <c r="G252" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H252" s="2">
         <v>0.69444444444444453</v>
@@ -7899,12 +7900,12 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B253" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C253" s="1">
         <v>43282</v>
@@ -7919,7 +7920,7 @@
         <v>15</v>
       </c>
       <c r="G253" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H253" s="2">
         <v>0.69444444444444453</v>
@@ -7928,9 +7929,9 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B254" t="s">
         <v>10</v>
@@ -7939,16 +7940,16 @@
         <v>43286</v>
       </c>
       <c r="D254" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E254" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F254" t="s">
         <v>13</v>
       </c>
       <c r="G254" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H254" s="2">
         <v>0.80555555555555547</v>
@@ -7957,9 +7958,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B255" t="s">
         <v>10</v>
@@ -7968,16 +7969,16 @@
         <v>43286</v>
       </c>
       <c r="D255" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E255" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F255" t="s">
         <v>15</v>
       </c>
       <c r="G255" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H255" s="2">
         <v>0.80555555555555547</v>
@@ -7986,9 +7987,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B256" t="s">
         <v>16</v>
@@ -8015,9 +8016,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B257" t="s">
         <v>16</v>
@@ -8044,9 +8045,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B258" t="s">
         <v>20</v>
@@ -8064,7 +8065,7 @@
         <v>13</v>
       </c>
       <c r="G258" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H258" s="2">
         <v>0.57291666666666663</v>
@@ -8073,9 +8074,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B259" t="s">
         <v>20</v>
@@ -8093,7 +8094,7 @@
         <v>15</v>
       </c>
       <c r="G259" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H259" s="2">
         <v>0.57291666666666663</v>
@@ -8102,9 +8103,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B260" t="s">
         <v>20</v>
@@ -8131,9 +8132,9 @@
         <v>0.67013888888888884</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B261" t="s">
         <v>20</v>
@@ -8160,9 +8161,9 @@
         <v>0.67013888888888884</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B262" t="s">
         <v>20</v>
@@ -8171,10 +8172,10 @@
         <v>43288</v>
       </c>
       <c r="D262" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E262" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F262" t="s">
         <v>13</v>
@@ -8189,9 +8190,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B263" t="s">
         <v>20</v>
@@ -8200,10 +8201,10 @@
         <v>43288</v>
       </c>
       <c r="D263" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E263" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F263" t="s">
         <v>15</v>
@@ -8218,9 +8219,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B264" t="s">
         <v>20</v>
@@ -8229,7 +8230,7 @@
         <v>43288</v>
       </c>
       <c r="D264" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E264" t="s">
         <v>24</v>
@@ -8238,7 +8239,7 @@
         <v>13</v>
       </c>
       <c r="G264" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H264" s="2">
         <v>0.81944444444444453</v>
@@ -8247,9 +8248,9 @@
         <v>0.79861111111111116</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B265" t="s">
         <v>20</v>
@@ -8261,13 +8262,13 @@
         <v>24</v>
       </c>
       <c r="E265" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F265" t="s">
         <v>15</v>
       </c>
       <c r="G265" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H265" s="2">
         <v>0.81944444444444453</v>
@@ -8276,12 +8277,12 @@
         <v>0.79861111111111116</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B266" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C266" s="1">
         <v>43289</v>
@@ -8305,12 +8306,12 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B267" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C267" s="1">
         <v>43289</v>
@@ -8334,12 +8335,12 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B268" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C268" s="1">
         <v>43289</v>
@@ -8348,7 +8349,7 @@
         <v>17</v>
       </c>
       <c r="E268" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F268" t="s">
         <v>13</v>
@@ -8363,18 +8364,18 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B269" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C269" s="1">
         <v>43289</v>
       </c>
       <c r="D269" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E269" t="s">
         <v>17</v>
@@ -8392,27 +8393,27 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B270" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C270" s="1">
         <v>43289</v>
       </c>
       <c r="D270" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E270" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F270" t="s">
         <v>13</v>
       </c>
       <c r="G270" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H270" s="2">
         <v>0.69444444444444453</v>
@@ -8421,27 +8422,27 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B271" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C271" s="1">
         <v>43289</v>
       </c>
       <c r="D271" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E271" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F271" t="s">
         <v>15</v>
       </c>
       <c r="G271" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H271" s="2">
         <v>0.69444444444444453</v>
@@ -8450,9 +8451,9 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B272" t="s">
         <v>10</v>
@@ -8464,7 +8465,7 @@
         <v>18</v>
       </c>
       <c r="E272" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F272" t="s">
         <v>13</v>
@@ -8479,9 +8480,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B273" t="s">
         <v>10</v>
@@ -8490,7 +8491,7 @@
         <v>43293</v>
       </c>
       <c r="D273" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E273" t="s">
         <v>18</v>
@@ -8508,9 +8509,9 @@
         <v>0.80555555555555547</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B274" t="s">
         <v>16</v>
@@ -8537,9 +8538,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B275" t="s">
         <v>16</v>
@@ -8566,9 +8567,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B276" t="s">
         <v>20</v>
@@ -8577,7 +8578,7 @@
         <v>43295</v>
       </c>
       <c r="D276" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E276" t="s">
         <v>22</v>
@@ -8586,7 +8587,7 @@
         <v>13</v>
       </c>
       <c r="G276" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H276" s="2">
         <v>0.57291666666666663</v>
@@ -8595,9 +8596,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B277" t="s">
         <v>20</v>
@@ -8609,13 +8610,13 @@
         <v>22</v>
       </c>
       <c r="E277" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F277" t="s">
         <v>15</v>
       </c>
       <c r="G277" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H277" s="2">
         <v>0.57291666666666663</v>
@@ -8624,9 +8625,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B278" t="s">
         <v>20</v>
@@ -8635,10 +8636,10 @@
         <v>43295</v>
       </c>
       <c r="D278" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E278" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F278" t="s">
         <v>13</v>
@@ -8653,9 +8654,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B279" t="s">
         <v>20</v>
@@ -8664,10 +8665,10 @@
         <v>43295</v>
       </c>
       <c r="D279" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E279" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F279" t="s">
         <v>15</v>
@@ -8682,9 +8683,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B280" t="s">
         <v>20</v>
@@ -8702,7 +8703,7 @@
         <v>13</v>
       </c>
       <c r="G280" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H280" s="2">
         <v>0.80902777777777779</v>
@@ -8711,9 +8712,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B281" t="s">
         <v>20</v>
@@ -8731,7 +8732,7 @@
         <v>15</v>
       </c>
       <c r="G281" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H281" s="2">
         <v>0.80902777777777779</v>
@@ -8740,9 +8741,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B282" t="s">
         <v>20</v>
@@ -8751,7 +8752,7 @@
         <v>43295</v>
       </c>
       <c r="D282" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E282" t="s">
         <v>11</v>
@@ -8760,7 +8761,7 @@
         <v>13</v>
       </c>
       <c r="G282" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H282" s="2">
         <v>0.80902777777777779</v>
@@ -8769,9 +8770,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B283" t="s">
         <v>20</v>
@@ -8783,13 +8784,13 @@
         <v>11</v>
       </c>
       <c r="E283" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F283" t="s">
         <v>15</v>
       </c>
       <c r="G283" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H283" s="2">
         <v>0.80902777777777779</v>
@@ -8798,21 +8799,21 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B284" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C284" s="1">
         <v>43296</v>
       </c>
       <c r="D284" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E284" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F284" t="s">
         <v>13</v>
@@ -8827,21 +8828,21 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B285" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C285" s="1">
         <v>43296</v>
       </c>
       <c r="D285" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E285" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F285" t="s">
         <v>15</v>
@@ -8856,12 +8857,12 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B286" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C286" s="1">
         <v>43296</v>
@@ -8870,7 +8871,7 @@
         <v>27</v>
       </c>
       <c r="E286" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F286" t="s">
         <v>13</v>
@@ -8885,18 +8886,18 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B287" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C287" s="1">
         <v>43296</v>
       </c>
       <c r="D287" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E287" t="s">
         <v>27</v>
@@ -8914,12 +8915,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B288" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C288" s="1">
         <v>43296</v>
@@ -8934,7 +8935,7 @@
         <v>13</v>
       </c>
       <c r="G288" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H288" s="2">
         <v>0.69444444444444453</v>
@@ -8943,12 +8944,12 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B289" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C289" s="1">
         <v>43296</v>
@@ -8963,7 +8964,7 @@
         <v>15</v>
       </c>
       <c r="G289" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H289" s="2">
         <v>0.69444444444444453</v>
@@ -8972,9 +8973,9 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B290" t="s">
         <v>16</v>
@@ -9001,9 +9002,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B291" t="s">
         <v>16</v>
@@ -9030,9 +9031,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B292" t="s">
         <v>20</v>
@@ -9041,7 +9042,7 @@
         <v>43302</v>
       </c>
       <c r="D292" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E292" t="s">
         <v>27</v>
@@ -9059,9 +9060,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B293" t="s">
         <v>20</v>
@@ -9073,7 +9074,7 @@
         <v>27</v>
       </c>
       <c r="E293" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F293" t="s">
         <v>15</v>
@@ -9088,9 +9089,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B294" t="s">
         <v>20</v>
@@ -9099,7 +9100,7 @@
         <v>43302</v>
       </c>
       <c r="D294" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E294" t="s">
         <v>26</v>
@@ -9108,7 +9109,7 @@
         <v>13</v>
       </c>
       <c r="G294" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H294" s="2">
         <v>0.59027777777777779</v>
@@ -9117,9 +9118,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B295" t="s">
         <v>20</v>
@@ -9131,13 +9132,13 @@
         <v>26</v>
       </c>
       <c r="E295" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F295" t="s">
         <v>15</v>
       </c>
       <c r="G295" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H295" s="2">
         <v>0.59027777777777779</v>
@@ -9146,9 +9147,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B296" t="s">
         <v>20</v>
@@ -9175,9 +9176,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B297" t="s">
         <v>20</v>
@@ -9204,9 +9205,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B298" t="s">
         <v>20</v>
@@ -9224,7 +9225,7 @@
         <v>13</v>
       </c>
       <c r="G298" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H298" s="2">
         <v>0.80902777777777779</v>
@@ -9233,9 +9234,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B299" t="s">
         <v>20</v>
@@ -9253,7 +9254,7 @@
         <v>15</v>
       </c>
       <c r="G299" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H299" s="2">
         <v>0.80902777777777779</v>
@@ -9262,9 +9263,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B300" t="s">
         <v>20</v>
@@ -9273,16 +9274,16 @@
         <v>43302</v>
       </c>
       <c r="D300" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E300" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F300" t="s">
         <v>13</v>
       </c>
       <c r="G300" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H300" s="2">
         <v>0.80902777777777779</v>
@@ -9291,9 +9292,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B301" t="s">
         <v>20</v>
@@ -9302,16 +9303,16 @@
         <v>43302</v>
       </c>
       <c r="D301" t="s">
+        <v>34</v>
+      </c>
+      <c r="E301" t="s">
         <v>35</v>
       </c>
-      <c r="E301" t="s">
-        <v>36</v>
-      </c>
       <c r="F301" t="s">
         <v>15</v>
       </c>
       <c r="G301" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H301" s="2">
         <v>0.80902777777777779</v>
@@ -9320,12 +9321,12 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B302" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C302" s="1">
         <v>43303</v>
@@ -9334,7 +9335,7 @@
         <v>12</v>
       </c>
       <c r="E302" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F302" t="s">
         <v>13</v>
@@ -9349,18 +9350,18 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B303" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C303" s="1">
         <v>43303</v>
       </c>
       <c r="D303" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E303" t="s">
         <v>12</v>
@@ -9378,27 +9379,27 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B304" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C304" s="1">
         <v>43303</v>
       </c>
       <c r="D304" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E304" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F304" t="s">
         <v>13</v>
       </c>
       <c r="G304" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H304" s="2">
         <v>0.63888888888888895</v>
@@ -9407,27 +9408,27 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B305" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C305" s="1">
         <v>43303</v>
       </c>
       <c r="D305" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E305" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F305" t="s">
         <v>15</v>
       </c>
       <c r="G305" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H305" s="2">
         <v>0.63888888888888895</v>
@@ -9436,12 +9437,12 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B306" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C306" s="1">
         <v>43303</v>
@@ -9450,7 +9451,7 @@
         <v>23</v>
       </c>
       <c r="E306" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F306" t="s">
         <v>13</v>
@@ -9465,18 +9466,18 @@
         <v>0.67361111111111116</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B307" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C307" s="1">
         <v>43303</v>
       </c>
       <c r="D307" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E307" t="s">
         <v>23</v>
@@ -9494,9 +9495,9 @@
         <v>0.67361111111111116</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B308" t="s">
         <v>16</v>
@@ -9508,7 +9509,7 @@
         <v>17</v>
       </c>
       <c r="E308" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F308" t="s">
         <v>13</v>
@@ -9523,9 +9524,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B309" t="s">
         <v>16</v>
@@ -9534,7 +9535,7 @@
         <v>43308</v>
       </c>
       <c r="D309" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E309" t="s">
         <v>17</v>
@@ -9552,9 +9553,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B310" t="s">
         <v>20</v>
@@ -9566,7 +9567,7 @@
         <v>11</v>
       </c>
       <c r="E310" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F310" t="s">
         <v>13</v>
@@ -9581,9 +9582,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B311" t="s">
         <v>20</v>
@@ -9592,7 +9593,7 @@
         <v>43309</v>
       </c>
       <c r="D311" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E311" t="s">
         <v>11</v>
@@ -9610,9 +9611,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B312" t="s">
         <v>20</v>
@@ -9621,7 +9622,7 @@
         <v>43309</v>
       </c>
       <c r="D312" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E312" t="s">
         <v>22</v>
@@ -9630,7 +9631,7 @@
         <v>13</v>
       </c>
       <c r="G312" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H312" s="2">
         <v>0.59027777777777779</v>
@@ -9639,9 +9640,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B313" t="s">
         <v>20</v>
@@ -9653,13 +9654,13 @@
         <v>22</v>
       </c>
       <c r="E313" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F313" t="s">
         <v>15</v>
       </c>
       <c r="G313" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H313" s="2">
         <v>0.59027777777777779</v>
@@ -9668,9 +9669,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B314" t="s">
         <v>20</v>
@@ -9679,7 +9680,7 @@
         <v>43309</v>
       </c>
       <c r="D314" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E314" t="s">
         <v>21</v>
@@ -9688,7 +9689,7 @@
         <v>13</v>
       </c>
       <c r="G314" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H314" s="2">
         <v>0.69097222222222221</v>
@@ -9697,9 +9698,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B315" t="s">
         <v>20</v>
@@ -9711,13 +9712,13 @@
         <v>21</v>
       </c>
       <c r="E315" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F315" t="s">
         <v>15</v>
       </c>
       <c r="G315" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H315" s="2">
         <v>0.69097222222222221</v>
@@ -9726,9 +9727,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B316" t="s">
         <v>20</v>
@@ -9746,7 +9747,7 @@
         <v>13</v>
       </c>
       <c r="G316" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H316" s="2">
         <v>0.80902777777777779</v>
@@ -9755,9 +9756,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B317" t="s">
         <v>20</v>
@@ -9775,7 +9776,7 @@
         <v>15</v>
       </c>
       <c r="G317" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H317" s="2">
         <v>0.80902777777777779</v>
@@ -9784,9 +9785,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B318" t="s">
         <v>20</v>
@@ -9798,7 +9799,7 @@
         <v>18</v>
       </c>
       <c r="E318" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F318" t="s">
         <v>13</v>
@@ -9813,9 +9814,9 @@
         <v>0.79861111111111116</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B319" t="s">
         <v>20</v>
@@ -9824,7 +9825,7 @@
         <v>43309</v>
       </c>
       <c r="D319" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E319" t="s">
         <v>18</v>
@@ -9842,12 +9843,12 @@
         <v>0.79861111111111116</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B320" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C320" s="1">
         <v>43310</v>
@@ -9856,13 +9857,13 @@
         <v>27</v>
       </c>
       <c r="E320" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F320" t="s">
         <v>13</v>
       </c>
       <c r="G320" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H320" s="2">
         <v>0.54861111111111105</v>
@@ -9871,18 +9872,18 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B321" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C321" s="1">
         <v>43310</v>
       </c>
       <c r="D321" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E321" t="s">
         <v>27</v>
@@ -9891,7 +9892,7 @@
         <v>15</v>
       </c>
       <c r="G321" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H321" s="2">
         <v>0.54861111111111105</v>
@@ -9900,18 +9901,18 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B322" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C322" s="1">
         <v>43310</v>
       </c>
       <c r="D322" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E322" t="s">
         <v>23</v>
@@ -9920,7 +9921,7 @@
         <v>13</v>
       </c>
       <c r="G322" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H322" s="2">
         <v>0.63888888888888895</v>
@@ -9929,12 +9930,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B323" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C323" s="1">
         <v>43310</v>
@@ -9943,13 +9944,13 @@
         <v>23</v>
       </c>
       <c r="E323" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F323" t="s">
         <v>15</v>
       </c>
       <c r="G323" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H323" s="2">
         <v>0.63888888888888895</v>
@@ -9958,12 +9959,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B324" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C324" s="1">
         <v>43310</v>
@@ -9972,13 +9973,13 @@
         <v>24</v>
       </c>
       <c r="E324" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F324" t="s">
         <v>13</v>
       </c>
       <c r="G324" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H324" s="2">
         <v>0.69444444444444453</v>
@@ -9987,18 +9988,18 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B325" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C325" s="1">
         <v>43310</v>
       </c>
       <c r="D325" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E325" t="s">
         <v>24</v>
@@ -10007,7 +10008,7 @@
         <v>15</v>
       </c>
       <c r="G325" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H325" s="2">
         <v>0.69444444444444453</v>
@@ -10016,9 +10017,9 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B326" t="s">
         <v>16</v>
@@ -10030,7 +10031,7 @@
         <v>11</v>
       </c>
       <c r="E326" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F326" t="s">
         <v>13</v>
@@ -10045,9 +10046,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B327" t="s">
         <v>16</v>
@@ -10056,7 +10057,7 @@
         <v>43315</v>
       </c>
       <c r="D327" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E327" t="s">
         <v>11</v>
@@ -10074,9 +10075,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B328" t="s">
         <v>20</v>
@@ -10085,7 +10086,7 @@
         <v>43316</v>
       </c>
       <c r="D328" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E328" t="s">
         <v>17</v>
@@ -10103,9 +10104,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B329" t="s">
         <v>20</v>
@@ -10117,7 +10118,7 @@
         <v>17</v>
       </c>
       <c r="E329" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F329" t="s">
         <v>15</v>
@@ -10132,9 +10133,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B330" t="s">
         <v>20</v>
@@ -10152,7 +10153,7 @@
         <v>13</v>
       </c>
       <c r="G330" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H330" s="2">
         <v>0.59027777777777779</v>
@@ -10161,9 +10162,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B331" t="s">
         <v>20</v>
@@ -10181,7 +10182,7 @@
         <v>15</v>
       </c>
       <c r="G331" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H331" s="2">
         <v>0.59027777777777779</v>
@@ -10190,9 +10191,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B332" t="s">
         <v>20</v>
@@ -10219,9 +10220,9 @@
         <v>0.67013888888888884</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B333" t="s">
         <v>20</v>
@@ -10248,9 +10249,9 @@
         <v>0.67013888888888884</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B334" t="s">
         <v>20</v>
@@ -10262,7 +10263,7 @@
         <v>21</v>
       </c>
       <c r="E334" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F334" t="s">
         <v>13</v>
@@ -10277,9 +10278,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B335" t="s">
         <v>20</v>
@@ -10288,7 +10289,7 @@
         <v>43316</v>
       </c>
       <c r="D335" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E335" t="s">
         <v>21</v>
@@ -10306,9 +10307,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B336" t="s">
         <v>20</v>
@@ -10317,16 +10318,16 @@
         <v>43316</v>
       </c>
       <c r="D336" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E336" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F336" t="s">
         <v>13</v>
       </c>
       <c r="G336" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H336" s="2">
         <v>0.80902777777777779</v>
@@ -10335,9 +10336,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B337" t="s">
         <v>20</v>
@@ -10346,30 +10347,30 @@
         <v>43316</v>
       </c>
       <c r="D337" t="s">
+        <v>29</v>
+      </c>
+      <c r="E337" t="s">
+        <v>37</v>
+      </c>
+      <c r="F337" t="s">
+        <v>15</v>
+      </c>
+      <c r="G337" t="s">
+        <v>41</v>
+      </c>
+      <c r="H337" s="2">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="I337" s="2">
+        <v>0.80902777777777779</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A338" t="s">
+        <v>71</v>
+      </c>
+      <c r="B338" t="s">
         <v>30</v>
-      </c>
-      <c r="E337" t="s">
-        <v>38</v>
-      </c>
-      <c r="F337" t="s">
-        <v>15</v>
-      </c>
-      <c r="G337" t="s">
-        <v>42</v>
-      </c>
-      <c r="H337" s="2">
-        <v>0.80902777777777779</v>
-      </c>
-      <c r="I337" s="2">
-        <v>0.80902777777777779</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9">
-      <c r="A338" t="s">
-        <v>72</v>
-      </c>
-      <c r="B338" t="s">
-        <v>31</v>
       </c>
       <c r="C338" s="1">
         <v>43317</v>
@@ -10378,7 +10379,7 @@
         <v>12</v>
       </c>
       <c r="E338" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F338" t="s">
         <v>13</v>
@@ -10393,18 +10394,18 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B339" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C339" s="1">
         <v>43317</v>
       </c>
       <c r="D339" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E339" t="s">
         <v>12</v>
@@ -10422,18 +10423,18 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B340" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C340" s="1">
         <v>43317</v>
       </c>
       <c r="D340" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E340" t="s">
         <v>26</v>
@@ -10451,12 +10452,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B341" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C341" s="1">
         <v>43317</v>
@@ -10465,7 +10466,7 @@
         <v>26</v>
       </c>
       <c r="E341" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F341" t="s">
         <v>15</v>
@@ -10480,18 +10481,18 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B342" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C342" s="1">
         <v>43317</v>
       </c>
       <c r="D342" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E342" t="s">
         <v>24</v>
@@ -10500,7 +10501,7 @@
         <v>13</v>
       </c>
       <c r="G342" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H342" s="2">
         <v>0.69444444444444453</v>
@@ -10509,12 +10510,12 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B343" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C343" s="1">
         <v>43317</v>
@@ -10523,13 +10524,13 @@
         <v>24</v>
       </c>
       <c r="E343" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F343" t="s">
         <v>15</v>
       </c>
       <c r="G343" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H343" s="2">
         <v>0.69444444444444453</v>
@@ -10538,9 +10539,9 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B344" t="s">
         <v>16</v>
@@ -10567,9 +10568,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B345" t="s">
         <v>16</v>
@@ -10596,9 +10597,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B346" t="s">
         <v>20</v>
@@ -10607,10 +10608,10 @@
         <v>43323</v>
       </c>
       <c r="D346" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E346" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F346" t="s">
         <v>13</v>
@@ -10625,9 +10626,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B347" t="s">
         <v>20</v>
@@ -10636,10 +10637,10 @@
         <v>43323</v>
       </c>
       <c r="D347" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E347" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F347" t="s">
         <v>15</v>
@@ -10654,9 +10655,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B348" t="s">
         <v>20</v>
@@ -10674,7 +10675,7 @@
         <v>13</v>
       </c>
       <c r="G348" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H348" s="2">
         <v>0.59027777777777779</v>
@@ -10683,9 +10684,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B349" t="s">
         <v>20</v>
@@ -10703,7 +10704,7 @@
         <v>15</v>
       </c>
       <c r="G349" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H349" s="2">
         <v>0.59027777777777779</v>
@@ -10712,9 +10713,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B350" t="s">
         <v>20</v>
@@ -10726,7 +10727,7 @@
         <v>23</v>
       </c>
       <c r="E350" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F350" t="s">
         <v>13</v>
@@ -10741,9 +10742,9 @@
         <v>0.67013888888888884</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B351" t="s">
         <v>20</v>
@@ -10752,7 +10753,7 @@
         <v>43323</v>
       </c>
       <c r="D351" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E351" t="s">
         <v>23</v>
@@ -10770,9 +10771,9 @@
         <v>0.67013888888888884</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B352" t="s">
         <v>20</v>
@@ -10781,7 +10782,7 @@
         <v>43323</v>
       </c>
       <c r="D352" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E352" t="s">
         <v>22</v>
@@ -10799,9 +10800,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B353" t="s">
         <v>20</v>
@@ -10813,7 +10814,7 @@
         <v>22</v>
       </c>
       <c r="E353" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F353" t="s">
         <v>15</v>
@@ -10828,9 +10829,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B354" t="s">
         <v>20</v>
@@ -10839,7 +10840,7 @@
         <v>43323</v>
       </c>
       <c r="D354" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E354" t="s">
         <v>18</v>
@@ -10848,7 +10849,7 @@
         <v>13</v>
       </c>
       <c r="G354" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H354" s="2">
         <v>0.80902777777777779</v>
@@ -10857,9 +10858,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B355" t="s">
         <v>20</v>
@@ -10871,13 +10872,13 @@
         <v>18</v>
       </c>
       <c r="E355" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F355" t="s">
         <v>15</v>
       </c>
       <c r="G355" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H355" s="2">
         <v>0.80902777777777779</v>
@@ -10886,12 +10887,12 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B356" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C356" s="1">
         <v>43324</v>
@@ -10900,7 +10901,7 @@
         <v>27</v>
       </c>
       <c r="E356" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F356" t="s">
         <v>13</v>
@@ -10915,18 +10916,18 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B357" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C357" s="1">
         <v>43324</v>
       </c>
       <c r="D357" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E357" t="s">
         <v>27</v>
@@ -10944,21 +10945,21 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B358" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C358" s="1">
         <v>43324</v>
       </c>
       <c r="D358" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E358" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F358" t="s">
         <v>13</v>
@@ -10973,21 +10974,21 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B359" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C359" s="1">
         <v>43324</v>
       </c>
       <c r="D359" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E359" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F359" t="s">
         <v>15</v>
@@ -11002,12 +11003,12 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B360" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C360" s="1">
         <v>43324</v>
@@ -11022,7 +11023,7 @@
         <v>13</v>
       </c>
       <c r="G360" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H360" s="2">
         <v>0.69444444444444453</v>
@@ -11031,12 +11032,12 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B361" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C361" s="1">
         <v>43324</v>
@@ -11051,7 +11052,7 @@
         <v>15</v>
       </c>
       <c r="G361" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H361" s="2">
         <v>0.69444444444444453</v>
@@ -11060,9 +11061,9 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B362" t="s">
         <v>16</v>
@@ -11089,9 +11090,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B363" t="s">
         <v>16</v>
@@ -11118,9 +11119,9 @@
         <v>0.82638888888888884</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B364" t="s">
         <v>20</v>
@@ -11129,7 +11130,7 @@
         <v>43330</v>
       </c>
       <c r="D364" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E364" t="s">
         <v>23</v>
@@ -11147,9 +11148,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B365" t="s">
         <v>20</v>
@@ -11161,7 +11162,7 @@
         <v>23</v>
       </c>
       <c r="E365" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F365" t="s">
         <v>15</v>
@@ -11176,9 +11177,9 @@
         <v>0.57291666666666663</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B366" t="s">
         <v>20</v>
@@ -11187,7 +11188,7 @@
         <v>43330</v>
       </c>
       <c r="D366" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E366" t="s">
         <v>24</v>
@@ -11196,7 +11197,7 @@
         <v>13</v>
       </c>
       <c r="G366" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H366" s="2">
         <v>0.59027777777777779</v>
@@ -11205,9 +11206,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B367" t="s">
         <v>20</v>
@@ -11219,13 +11220,13 @@
         <v>24</v>
       </c>
       <c r="E367" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F367" t="s">
         <v>15</v>
       </c>
       <c r="G367" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H367" s="2">
         <v>0.59027777777777779</v>
@@ -11234,9 +11235,9 @@
         <v>0.59027777777777779</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B368" t="s">
         <v>20</v>
@@ -11245,16 +11246,16 @@
         <v>43330</v>
       </c>
       <c r="D368" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E368" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F368" t="s">
         <v>13</v>
       </c>
       <c r="G368" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H368" s="2">
         <v>0.69097222222222221</v>
@@ -11263,9 +11264,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B369" t="s">
         <v>20</v>
@@ -11274,16 +11275,16 @@
         <v>43330</v>
       </c>
       <c r="D369" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E369" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F369" t="s">
         <v>15</v>
       </c>
       <c r="G369" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H369" s="2">
         <v>0.69097222222222221</v>
@@ -11292,9 +11293,9 @@
         <v>0.69097222222222221</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B370" t="s">
         <v>20</v>
@@ -11312,7 +11313,7 @@
         <v>13</v>
       </c>
       <c r="G370" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H370" s="2">
         <v>0.80902777777777779</v>
@@ -11321,9 +11322,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B371" t="s">
         <v>20</v>
@@ -11341,7 +11342,7 @@
         <v>15</v>
       </c>
       <c r="G371" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H371" s="2">
         <v>0.80902777777777779</v>
@@ -11350,9 +11351,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B372" t="s">
         <v>20</v>
@@ -11364,7 +11365,7 @@
         <v>21</v>
       </c>
       <c r="E372" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F372" t="s">
         <v>13</v>
@@ -11379,9 +11380,9 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B373" t="s">
         <v>20</v>
@@ -11390,7 +11391,7 @@
         <v>43330</v>
       </c>
       <c r="D373" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E373" t="s">
         <v>21</v>
@@ -11408,12 +11409,12 @@
         <v>0.80902777777777779</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B374" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C374" s="1">
         <v>43331</v>
@@ -11422,7 +11423,7 @@
         <v>12</v>
       </c>
       <c r="E374" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F374" t="s">
         <v>13</v>
@@ -11437,18 +11438,18 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B375" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C375" s="1">
         <v>43331</v>
       </c>
       <c r="D375" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E375" t="s">
         <v>12</v>
@@ -11466,27 +11467,27 @@
         <v>0.54861111111111105</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B376" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C376" s="1">
         <v>43331</v>
       </c>
       <c r="D376" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E376" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F376" t="s">
         <v>13</v>
       </c>
       <c r="G376" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H376" s="2">
         <v>0.63888888888888895</v>
@@ -11495,27 +11496,27 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B377" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C377" s="1">
         <v>43331</v>
       </c>
       <c r="D377" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E377" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F377" t="s">
         <v>15</v>
       </c>
       <c r="G377" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H377" s="2">
         <v>0.63888888888888895</v>
@@ -11524,12 +11525,12 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B378" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C378" s="1">
         <v>43331</v>
@@ -11553,12 +11554,12 @@
         <v>0.67361111111111116</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B379" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C379" s="1">
         <v>43331</v>
@@ -11582,9 +11583,9 @@
         <v>0.67361111111111116</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B380" t="s">
         <v>16</v>
@@ -11596,18 +11597,18 @@
         <v>22</v>
       </c>
       <c r="E380" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F380" t="s">
         <v>13</v>
       </c>
       <c r="G380" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B381" t="s">
         <v>16</v>
@@ -11616,7 +11617,7 @@
         <v>43336</v>
       </c>
       <c r="D381" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E381" t="s">
         <v>22</v>
@@ -11625,12 +11626,12 @@
         <v>15</v>
       </c>
       <c r="G381" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B382" t="s">
         <v>16</v>
@@ -11651,9 +11652,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B383" t="s">
         <v>16</v>
@@ -11674,9 +11675,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B384" t="s">
         <v>16</v>
@@ -11688,18 +11689,18 @@
         <v>24</v>
       </c>
       <c r="E384" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F384" t="s">
         <v>13</v>
       </c>
       <c r="G384" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B385" t="s">
         <v>16</v>
@@ -11708,7 +11709,7 @@
         <v>43336</v>
       </c>
       <c r="D385" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E385" t="s">
         <v>24</v>
@@ -11717,12 +11718,12 @@
         <v>15</v>
       </c>
       <c r="G385" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B386" t="s">
         <v>16</v>
@@ -11731,7 +11732,7 @@
         <v>43336</v>
       </c>
       <c r="D386" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E386" t="s">
         <v>26</v>
@@ -11740,12 +11741,12 @@
         <v>13</v>
       </c>
       <c r="G386" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B387" t="s">
         <v>16</v>
@@ -11757,18 +11758,18 @@
         <v>26</v>
       </c>
       <c r="E387" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F387" t="s">
         <v>15</v>
       </c>
       <c r="G387" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B388" t="s">
         <v>16</v>
@@ -11777,10 +11778,10 @@
         <v>43336</v>
       </c>
       <c r="D388" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E388" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F388" t="s">
         <v>13</v>
@@ -11789,9 +11790,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B389" t="s">
         <v>16</v>
@@ -11800,10 +11801,10 @@
         <v>43336</v>
       </c>
       <c r="D389" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E389" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F389" t="s">
         <v>15</v>
@@ -11812,9 +11813,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B390" t="s">
         <v>16</v>
@@ -11835,9 +11836,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B391" t="s">
         <v>16</v>
@@ -11858,9 +11859,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B392" t="s">
         <v>16</v>
@@ -11872,7 +11873,7 @@
         <v>11</v>
       </c>
       <c r="E392" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F392" t="s">
         <v>13</v>
@@ -11881,9 +11882,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B393" t="s">
         <v>16</v>
@@ -11892,7 +11893,7 @@
         <v>43336</v>
       </c>
       <c r="D393" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E393" t="s">
         <v>11</v>
@@ -11904,9 +11905,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B394" t="s">
         <v>16</v>
@@ -11927,9 +11928,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B395" t="s">
         <v>16</v>
@@ -11950,9 +11951,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B396" t="s">
         <v>16</v>
@@ -11961,21 +11962,21 @@
         <v>43336</v>
       </c>
       <c r="D396" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E396" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F396" t="s">
         <v>13</v>
       </c>
       <c r="G396" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B397" t="s">
         <v>16</v>
@@ -11984,16 +11985,16 @@
         <v>43336</v>
       </c>
       <c r="D397" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E397" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F397" t="s">
         <v>15</v>
       </c>
       <c r="G397" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
